--- a/covered storage mass balances/data/climate data.xlsx
+++ b/covered storage mass balances/data/climate data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isaiah/Desktop/pro dairy/prodairy/covered storage mass balances/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0AFE1A5-449F-BA4B-8B95-B7714835ABC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9A12F6-26D2-764C-B44C-1381E8B5510E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="500" windowWidth="24240" windowHeight="16460" xr2:uid="{662D94F5-AFAF-D647-B5F9-94E1482E69E0}"/>
+    <workbookView xWindow="4180" yWindow="500" windowWidth="24240" windowHeight="16460" activeTab="1" xr2:uid="{662D94F5-AFAF-D647-B5F9-94E1482E69E0}"/>
   </bookViews>
   <sheets>
-    <sheet name="castile" sheetId="1" r:id="rId1"/>
+    <sheet name="castile_old" sheetId="1" r:id="rId1"/>
+    <sheet name="castile" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="9">
   <si>
     <t>T</t>
   </si>
@@ -52,15 +53,34 @@
   <si>
     <t>Rhavg</t>
   </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>P [in]</t>
+  </si>
+  <si>
+    <t>S [in]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF008000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -93,10 +113,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC5519F2-25B9-EE40-98B9-282B6330A842}">
   <dimension ref="A1:L154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2608,4 +2629,6257 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44C35015-9AE3-C04B-A603-2B61F5843024}">
+  <dimension ref="A1:J366"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B2">
+        <v>42.5</v>
+      </c>
+      <c r="C2">
+        <v>0.17</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>90.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>44928</v>
+      </c>
+      <c r="B3">
+        <v>36.5</v>
+      </c>
+      <c r="C3">
+        <v>0.04</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>85.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>44929</v>
+      </c>
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>94.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>44930</v>
+      </c>
+      <c r="B5">
+        <v>47</v>
+      </c>
+      <c r="C5">
+        <v>0.7</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>98.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>44931</v>
+      </c>
+      <c r="B6">
+        <v>43.5</v>
+      </c>
+      <c r="C6">
+        <v>0.77</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>74.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>44932</v>
+      </c>
+      <c r="B7">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>0.04</v>
+      </c>
+      <c r="D7">
+        <v>0.4</v>
+      </c>
+      <c r="E7">
+        <v>82.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>44933</v>
+      </c>
+      <c r="B8">
+        <v>31</v>
+      </c>
+      <c r="C8">
+        <v>0.12</v>
+      </c>
+      <c r="D8">
+        <v>1.2</v>
+      </c>
+      <c r="E8">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>44934</v>
+      </c>
+      <c r="B9">
+        <v>26.5</v>
+      </c>
+      <c r="C9">
+        <v>0.03</v>
+      </c>
+      <c r="D9">
+        <v>0.2</v>
+      </c>
+      <c r="E9">
+        <v>77.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>44935</v>
+      </c>
+      <c r="B10">
+        <v>25.5</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>76.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>44936</v>
+      </c>
+      <c r="B11">
+        <v>27</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>44937</v>
+      </c>
+      <c r="B12">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>0.02</v>
+      </c>
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>76.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>44938</v>
+      </c>
+      <c r="B13">
+        <v>28</v>
+      </c>
+      <c r="C13">
+        <v>0.08</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>88.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>44939</v>
+      </c>
+      <c r="B14">
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <v>0.65</v>
+      </c>
+      <c r="D14">
+        <v>0.7</v>
+      </c>
+      <c r="E14">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>44940</v>
+      </c>
+      <c r="B15">
+        <v>20.5</v>
+      </c>
+      <c r="C15">
+        <v>0.05</v>
+      </c>
+      <c r="D15">
+        <v>0.5</v>
+      </c>
+      <c r="E15">
+        <v>84.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>44941</v>
+      </c>
+      <c r="B16">
+        <v>15.5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0.2</v>
+      </c>
+      <c r="E16">
+        <v>82.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>44942</v>
+      </c>
+      <c r="B17">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>81.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>44943</v>
+      </c>
+      <c r="B18">
+        <v>27.5</v>
+      </c>
+      <c r="C18">
+        <v>0.06</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>44944</v>
+      </c>
+      <c r="B19">
+        <v>37.5</v>
+      </c>
+      <c r="C19">
+        <v>0.21</v>
+      </c>
+      <c r="D19">
+        <v>0.3</v>
+      </c>
+      <c r="E19">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>44945</v>
+      </c>
+      <c r="B20">
+        <v>32</v>
+      </c>
+      <c r="C20">
+        <v>0.09</v>
+      </c>
+      <c r="D20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>93.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>44946</v>
+      </c>
+      <c r="B21">
+        <v>35.5</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="D21">
+        <v>0.7</v>
+      </c>
+      <c r="E21">
+        <v>92.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>44947</v>
+      </c>
+      <c r="B22">
+        <v>28</v>
+      </c>
+      <c r="C22">
+        <v>0.19</v>
+      </c>
+      <c r="D22">
+        <v>1.7</v>
+      </c>
+      <c r="E22">
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>44948</v>
+      </c>
+      <c r="B23">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>85.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>44949</v>
+      </c>
+      <c r="B24">
+        <v>28.5</v>
+      </c>
+      <c r="C24">
+        <v>0.17</v>
+      </c>
+      <c r="D24">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E24">
+        <v>91.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>44950</v>
+      </c>
+      <c r="B25">
+        <v>25.5</v>
+      </c>
+      <c r="C25">
+        <v>0.04</v>
+      </c>
+      <c r="D25">
+        <v>0.5</v>
+      </c>
+      <c r="E25">
+        <v>78.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>44951</v>
+      </c>
+      <c r="B26">
+        <v>22.5</v>
+      </c>
+      <c r="C26">
+        <v>0.05</v>
+      </c>
+      <c r="D26">
+        <v>0.5</v>
+      </c>
+      <c r="E26">
+        <v>88.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>44952</v>
+      </c>
+      <c r="B27">
+        <v>29</v>
+      </c>
+      <c r="C27">
+        <v>0.48</v>
+      </c>
+      <c r="D27" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="E27">
+        <v>78.400000000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>44953</v>
+      </c>
+      <c r="B28">
+        <v>24.5</v>
+      </c>
+      <c r="C28">
+        <v>0.12</v>
+      </c>
+      <c r="D28">
+        <v>1.5</v>
+      </c>
+      <c r="E28">
+        <v>74.5</v>
+      </c>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>44954</v>
+      </c>
+      <c r="B29">
+        <v>27.5</v>
+      </c>
+      <c r="C29">
+        <v>0.05</v>
+      </c>
+      <c r="D29">
+        <v>0.5</v>
+      </c>
+      <c r="E29">
+        <v>69.5</v>
+      </c>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>44955</v>
+      </c>
+      <c r="B30">
+        <v>32</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>44956</v>
+      </c>
+      <c r="B31">
+        <v>29.5</v>
+      </c>
+      <c r="C31">
+        <v>0.06</v>
+      </c>
+      <c r="D31" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>83.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>44957</v>
+      </c>
+      <c r="B32">
+        <v>17.5</v>
+      </c>
+      <c r="C32">
+        <v>0.12</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>71.900000000000006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>44958</v>
+      </c>
+      <c r="B33">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <v>0.02</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>65.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>44959</v>
+      </c>
+      <c r="B34">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0.2</v>
+      </c>
+      <c r="E34">
+        <v>67.400000000000006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>44960</v>
+      </c>
+      <c r="B35">
+        <v>17.5</v>
+      </c>
+      <c r="C35">
+        <v>0.06</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>72.7</v>
+      </c>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>44961</v>
+      </c>
+      <c r="B36">
+        <v>-5</v>
+      </c>
+      <c r="C36">
+        <v>0.01</v>
+      </c>
+      <c r="D36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>64.2</v>
+      </c>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>44962</v>
+      </c>
+      <c r="B37">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>56.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>44963</v>
+      </c>
+      <c r="B38">
+        <v>37.5</v>
+      </c>
+      <c r="C38">
+        <v>0.05</v>
+      </c>
+      <c r="D38" t="s">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>44964</v>
+      </c>
+      <c r="B39">
+        <v>26</v>
+      </c>
+      <c r="C39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>44965</v>
+      </c>
+      <c r="B40">
+        <v>37.5</v>
+      </c>
+      <c r="C40">
+        <v>0.1</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>70.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>44966</v>
+      </c>
+      <c r="B41">
+        <v>35</v>
+      </c>
+      <c r="C41">
+        <v>0.05</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>83.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>44967</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="D42" t="s">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>76.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>44968</v>
+      </c>
+      <c r="B43">
+        <v>27</v>
+      </c>
+      <c r="C43">
+        <v>0.08</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>66.900000000000006</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>44969</v>
+      </c>
+      <c r="B44">
+        <v>27</v>
+      </c>
+      <c r="C44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>62.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>44970</v>
+      </c>
+      <c r="B45">
+        <v>37</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>67.900000000000006</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>44971</v>
+      </c>
+      <c r="B46">
+        <v>35.5</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>44972</v>
+      </c>
+      <c r="B47">
+        <v>38</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>45.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>44973</v>
+      </c>
+      <c r="B48">
+        <v>48</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>74.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>44974</v>
+      </c>
+      <c r="B49">
+        <v>42.5</v>
+      </c>
+      <c r="C49">
+        <v>0.09</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>87.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>44975</v>
+      </c>
+      <c r="B50">
+        <v>20</v>
+      </c>
+      <c r="C50">
+        <v>0.05</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>44976</v>
+      </c>
+      <c r="B51">
+        <v>27</v>
+      </c>
+      <c r="C51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>48.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>44977</v>
+      </c>
+      <c r="B52">
+        <v>40.5</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>44978</v>
+      </c>
+      <c r="B53">
+        <v>33</v>
+      </c>
+      <c r="C53" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53" t="s">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>44979</v>
+      </c>
+      <c r="B54">
+        <v>30.5</v>
+      </c>
+      <c r="C54">
+        <v>0.06</v>
+      </c>
+      <c r="D54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>81.900000000000006</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>44980</v>
+      </c>
+      <c r="B55">
+        <v>25.5</v>
+      </c>
+      <c r="C55">
+        <v>0.95</v>
+      </c>
+      <c r="D55">
+        <v>1.5</v>
+      </c>
+      <c r="E55">
+        <v>94.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>44981</v>
+      </c>
+      <c r="B56">
+        <v>31</v>
+      </c>
+      <c r="C56">
+        <v>0.03</v>
+      </c>
+      <c r="D56">
+        <v>0.2</v>
+      </c>
+      <c r="E56">
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>44982</v>
+      </c>
+      <c r="B57">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0.2</v>
+      </c>
+      <c r="E57">
+        <v>68.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>44983</v>
+      </c>
+      <c r="B58">
+        <v>20.5</v>
+      </c>
+      <c r="C58">
+        <v>0.04</v>
+      </c>
+      <c r="D58">
+        <v>0.5</v>
+      </c>
+      <c r="E58">
+        <v>67.599999999999994</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>44984</v>
+      </c>
+      <c r="B59">
+        <v>25</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>73.599999999999994</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>44985</v>
+      </c>
+      <c r="B60">
+        <v>26.5</v>
+      </c>
+      <c r="C60">
+        <v>0.45</v>
+      </c>
+      <c r="D60" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E60">
+        <v>81.400000000000006</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>44986</v>
+      </c>
+      <c r="B61">
+        <v>28.5</v>
+      </c>
+      <c r="C61">
+        <v>0.04</v>
+      </c>
+      <c r="D61" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>44987</v>
+      </c>
+      <c r="B62">
+        <v>36</v>
+      </c>
+      <c r="C62" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>80.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>44988</v>
+      </c>
+      <c r="B63">
+        <v>28</v>
+      </c>
+      <c r="C63" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>86.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>44989</v>
+      </c>
+      <c r="B64">
+        <v>31</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="D64" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="E64">
+        <v>89.6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>44990</v>
+      </c>
+      <c r="B65">
+        <v>30</v>
+      </c>
+      <c r="C65">
+        <v>0.04</v>
+      </c>
+      <c r="D65">
+        <v>0.5</v>
+      </c>
+      <c r="E65">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>44991</v>
+      </c>
+      <c r="B66">
+        <v>30</v>
+      </c>
+      <c r="C66" t="s">
+        <v>0</v>
+      </c>
+      <c r="D66" t="s">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>44992</v>
+      </c>
+      <c r="B67">
+        <v>27.5</v>
+      </c>
+      <c r="C67">
+        <v>0.03</v>
+      </c>
+      <c r="D67">
+        <v>0.3</v>
+      </c>
+      <c r="E67">
+        <v>54.4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>44993</v>
+      </c>
+      <c r="B68">
+        <v>25</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>44994</v>
+      </c>
+      <c r="B69">
+        <v>24.5</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>44995</v>
+      </c>
+      <c r="B70">
+        <v>28</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>44996</v>
+      </c>
+      <c r="B71">
+        <v>28</v>
+      </c>
+      <c r="C71">
+        <v>0.44</v>
+      </c>
+      <c r="D71">
+        <v>5.5</v>
+      </c>
+      <c r="E71">
+        <v>79.2</v>
+      </c>
+      <c r="J71" s="3"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>44997</v>
+      </c>
+      <c r="B72">
+        <v>23</v>
+      </c>
+      <c r="C72" t="s">
+        <v>0</v>
+      </c>
+      <c r="D72" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>44998</v>
+      </c>
+      <c r="B73">
+        <v>24</v>
+      </c>
+      <c r="C73">
+        <v>0.06</v>
+      </c>
+      <c r="D73">
+        <v>0.7</v>
+      </c>
+      <c r="E73">
+        <v>87.6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>44999</v>
+      </c>
+      <c r="B74">
+        <v>26</v>
+      </c>
+      <c r="C74">
+        <v>0.06</v>
+      </c>
+      <c r="D74">
+        <v>0.5</v>
+      </c>
+      <c r="E74">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>45000</v>
+      </c>
+      <c r="B75">
+        <v>18.5</v>
+      </c>
+      <c r="C75">
+        <v>0.05</v>
+      </c>
+      <c r="D75">
+        <v>0.5</v>
+      </c>
+      <c r="E75">
+        <v>55.2</v>
+      </c>
+      <c r="J75" s="3"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>45001</v>
+      </c>
+      <c r="B76">
+        <v>23</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>45.5</v>
+      </c>
+      <c r="J76" s="3"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>45002</v>
+      </c>
+      <c r="B77">
+        <v>39.5</v>
+      </c>
+      <c r="C77">
+        <v>0.3</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>83.4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>45003</v>
+      </c>
+      <c r="B78">
+        <v>35.5</v>
+      </c>
+      <c r="C78">
+        <v>0.32</v>
+      </c>
+      <c r="D78" t="s">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>45004</v>
+      </c>
+      <c r="B79">
+        <v>23</v>
+      </c>
+      <c r="C79">
+        <v>0.23</v>
+      </c>
+      <c r="D79">
+        <v>4.7</v>
+      </c>
+      <c r="E79">
+        <v>66.099999999999994</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>45005</v>
+      </c>
+      <c r="B80">
+        <v>19.5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>0</v>
+      </c>
+      <c r="D80" t="s">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>45006</v>
+      </c>
+      <c r="B81">
+        <v>32</v>
+      </c>
+      <c r="C81" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0.2</v>
+      </c>
+      <c r="E81">
+        <v>53.1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>45007</v>
+      </c>
+      <c r="B82">
+        <v>40</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>45008</v>
+      </c>
+      <c r="B83">
+        <v>43.5</v>
+      </c>
+      <c r="C83">
+        <v>0.05</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>45009</v>
+      </c>
+      <c r="B84">
+        <v>37.5</v>
+      </c>
+      <c r="C84">
+        <v>0.34</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>70.8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>45010</v>
+      </c>
+      <c r="B85">
+        <v>33.5</v>
+      </c>
+      <c r="C85">
+        <v>0.13</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>76.2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>45011</v>
+      </c>
+      <c r="B86">
+        <v>36.5</v>
+      </c>
+      <c r="C86">
+        <v>0.63</v>
+      </c>
+      <c r="D86" t="s">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>58.3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>45012</v>
+      </c>
+      <c r="B87">
+        <v>37.5</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>83.8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>45013</v>
+      </c>
+      <c r="B88">
+        <v>33</v>
+      </c>
+      <c r="C88">
+        <v>0.33</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>45014</v>
+      </c>
+      <c r="B89">
+        <v>34.5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>0</v>
+      </c>
+      <c r="D89" t="s">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>69.400000000000006</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>45015</v>
+      </c>
+      <c r="B90">
+        <v>29</v>
+      </c>
+      <c r="C90">
+        <v>0.08</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>52.7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>45016</v>
+      </c>
+      <c r="B91">
+        <v>24.5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>73.7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>45017</v>
+      </c>
+      <c r="B92">
+        <v>43.5</v>
+      </c>
+      <c r="C92" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>78.400000000000006</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>45018</v>
+      </c>
+      <c r="B93">
+        <v>42</v>
+      </c>
+      <c r="C93">
+        <v>0.37</v>
+      </c>
+      <c r="D93" t="s">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>49</v>
+      </c>
+      <c r="J93" s="3"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>45019</v>
+      </c>
+      <c r="B94">
+        <v>28</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>48</v>
+      </c>
+      <c r="J94" s="3"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>45020</v>
+      </c>
+      <c r="B95">
+        <v>50</v>
+      </c>
+      <c r="C95">
+        <v>0.68</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>83.6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>45021</v>
+      </c>
+      <c r="B96">
+        <v>48.5</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>85.1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>45022</v>
+      </c>
+      <c r="B97">
+        <v>63</v>
+      </c>
+      <c r="C97" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>60.8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>45023</v>
+      </c>
+      <c r="B98">
+        <v>41</v>
+      </c>
+      <c r="C98" t="s">
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>45024</v>
+      </c>
+      <c r="B99">
+        <v>29.5</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>45025</v>
+      </c>
+      <c r="B100">
+        <v>33</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>59.1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>45026</v>
+      </c>
+      <c r="B101">
+        <v>38.5</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>49.9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>45027</v>
+      </c>
+      <c r="B102">
+        <v>47.5</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>45028</v>
+      </c>
+      <c r="B103">
+        <v>57</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>44.1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>45029</v>
+      </c>
+      <c r="B104">
+        <v>62</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>38.200000000000003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>45030</v>
+      </c>
+      <c r="B105">
+        <v>64.5</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>41.3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>45031</v>
+      </c>
+      <c r="B106">
+        <v>67</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>50.8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>45032</v>
+      </c>
+      <c r="B107">
+        <v>66.5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>60.4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>45033</v>
+      </c>
+      <c r="B108">
+        <v>59</v>
+      </c>
+      <c r="C108">
+        <v>0.41</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>77.599999999999994</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>45034</v>
+      </c>
+      <c r="B109">
+        <v>40.5</v>
+      </c>
+      <c r="C109">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D109" t="s">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>72.8</v>
+      </c>
+      <c r="J109" s="3"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>45035</v>
+      </c>
+      <c r="B110">
+        <v>33</v>
+      </c>
+      <c r="C110">
+        <v>0.18</v>
+      </c>
+      <c r="D110" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E110">
+        <v>63.3</v>
+      </c>
+      <c r="J110" s="3"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>45036</v>
+      </c>
+      <c r="B111">
+        <v>36.5</v>
+      </c>
+      <c r="C111">
+        <v>0.03</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>60.8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>45037</v>
+      </c>
+      <c r="B112">
+        <v>50</v>
+      </c>
+      <c r="C112" t="s">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>54.7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>45038</v>
+      </c>
+      <c r="B113">
+        <v>65</v>
+      </c>
+      <c r="C113">
+        <v>0.35</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>45039</v>
+      </c>
+      <c r="B114">
+        <v>50</v>
+      </c>
+      <c r="C114">
+        <v>0.03</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>64.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>45040</v>
+      </c>
+      <c r="B115">
+        <v>38</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>45041</v>
+      </c>
+      <c r="B116">
+        <v>37.5</v>
+      </c>
+      <c r="C116">
+        <v>0.05</v>
+      </c>
+      <c r="D116" t="s">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>73.7</v>
+      </c>
+      <c r="J116" s="3"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>45042</v>
+      </c>
+      <c r="B117">
+        <v>39.5</v>
+      </c>
+      <c r="C117">
+        <v>0.04</v>
+      </c>
+      <c r="D117" t="s">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>79.099999999999994</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>45043</v>
+      </c>
+      <c r="B118">
+        <v>38.5</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>61.6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>45044</v>
+      </c>
+      <c r="B119">
+        <v>44.5</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>66.2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>45045</v>
+      </c>
+      <c r="B120">
+        <v>48.5</v>
+      </c>
+      <c r="C120">
+        <v>0.1</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>80.8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>45046</v>
+      </c>
+      <c r="B121">
+        <v>49.5</v>
+      </c>
+      <c r="C121">
+        <v>0.08</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>45047</v>
+      </c>
+      <c r="B122">
+        <v>46</v>
+      </c>
+      <c r="C122">
+        <v>0.36</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>78.900000000000006</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>45048</v>
+      </c>
+      <c r="B123">
+        <v>39</v>
+      </c>
+      <c r="C123">
+        <v>0.46</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>82.3</v>
+      </c>
+      <c r="J123" s="3"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>45049</v>
+      </c>
+      <c r="B124">
+        <v>37</v>
+      </c>
+      <c r="C124">
+        <v>0.3</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>86.3</v>
+      </c>
+      <c r="J124" s="3"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>45050</v>
+      </c>
+      <c r="B125">
+        <v>39</v>
+      </c>
+      <c r="C125">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>86.1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>45051</v>
+      </c>
+      <c r="B126">
+        <v>41.5</v>
+      </c>
+      <c r="C126">
+        <v>0.09</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>73.3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>45052</v>
+      </c>
+      <c r="B127">
+        <v>46.5</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>61.7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>45053</v>
+      </c>
+      <c r="B128">
+        <v>52</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>45054</v>
+      </c>
+      <c r="B129">
+        <v>56</v>
+      </c>
+      <c r="C129">
+        <v>0.23</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>61.9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>45055</v>
+      </c>
+      <c r="B130">
+        <v>52.5</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>47.3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>45056</v>
+      </c>
+      <c r="B131">
+        <v>47.5</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>52.3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>45057</v>
+      </c>
+      <c r="B132">
+        <v>54</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>50.4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>45058</v>
+      </c>
+      <c r="B133">
+        <v>64</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>47.1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>45059</v>
+      </c>
+      <c r="B134">
+        <v>66.5</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>44.9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>45060</v>
+      </c>
+      <c r="B135">
+        <v>57</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>45061</v>
+      </c>
+      <c r="B136">
+        <v>48</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>45062</v>
+      </c>
+      <c r="B137">
+        <v>56</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>45063</v>
+      </c>
+      <c r="B138">
+        <v>51</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>54.9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>45064</v>
+      </c>
+      <c r="B139">
+        <v>37.5</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>45065</v>
+      </c>
+      <c r="B140">
+        <v>51.5</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>45066</v>
+      </c>
+      <c r="B141">
+        <v>61.5</v>
+      </c>
+      <c r="C141">
+        <v>0.1</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>81.7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>45067</v>
+      </c>
+      <c r="B142">
+        <v>52</v>
+      </c>
+      <c r="C142" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>65.099999999999994</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>45068</v>
+      </c>
+      <c r="B143">
+        <v>56</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>45069</v>
+      </c>
+      <c r="B144">
+        <v>53.5</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>61.9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>45070</v>
+      </c>
+      <c r="B145">
+        <v>63</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>71.7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>45071</v>
+      </c>
+      <c r="B146">
+        <v>53.5</v>
+      </c>
+      <c r="C146" t="s">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>45072</v>
+      </c>
+      <c r="B147">
+        <v>45.5</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>45073</v>
+      </c>
+      <c r="B148">
+        <v>54.5</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>45074</v>
+      </c>
+      <c r="B149">
+        <v>61</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>54.3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>45075</v>
+      </c>
+      <c r="B150">
+        <v>65</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>45076</v>
+      </c>
+      <c r="B151">
+        <v>67.5</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>45077</v>
+      </c>
+      <c r="B152">
+        <v>70.5</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>54.7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>45078</v>
+      </c>
+      <c r="B153">
+        <v>69</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>57.6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>45079</v>
+      </c>
+      <c r="B154">
+        <v>70</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>45080</v>
+      </c>
+      <c r="B155">
+        <v>71.5</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>65.599999999999994</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>45081</v>
+      </c>
+      <c r="B156">
+        <v>55</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>45082</v>
+      </c>
+      <c r="B157">
+        <v>55</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>53.3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>45083</v>
+      </c>
+      <c r="B158">
+        <v>59</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>45084</v>
+      </c>
+      <c r="B159">
+        <v>56</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>45085</v>
+      </c>
+      <c r="B160">
+        <v>55</v>
+      </c>
+      <c r="C160" t="s">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>69.2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>45086</v>
+      </c>
+      <c r="B161">
+        <v>52</v>
+      </c>
+      <c r="C161" t="s">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161">
+        <v>73.400000000000006</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>45087</v>
+      </c>
+      <c r="B162">
+        <v>54</v>
+      </c>
+      <c r="C162">
+        <v>0.34</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162">
+        <v>65.7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>45088</v>
+      </c>
+      <c r="B163">
+        <v>62</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163">
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>45089</v>
+      </c>
+      <c r="B164">
+        <v>64</v>
+      </c>
+      <c r="C164">
+        <v>0.08</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164">
+        <v>90.5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>45090</v>
+      </c>
+      <c r="B165">
+        <v>57.5</v>
+      </c>
+      <c r="C165" s="3">
+        <v>0.51</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165">
+        <v>70.900000000000006</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>45091</v>
+      </c>
+      <c r="B166">
+        <v>57.5</v>
+      </c>
+      <c r="C166">
+        <v>0.1</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>45092</v>
+      </c>
+      <c r="B167">
+        <v>54.5</v>
+      </c>
+      <c r="C167">
+        <v>0.5</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>45093</v>
+      </c>
+      <c r="B168">
+        <v>60</v>
+      </c>
+      <c r="C168">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168">
+        <v>89.9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>45094</v>
+      </c>
+      <c r="B169">
+        <v>56</v>
+      </c>
+      <c r="C169">
+        <v>0.06</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169">
+        <v>59.3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>45095</v>
+      </c>
+      <c r="B170">
+        <v>60.5</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170">
+        <v>65.900000000000006</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>45096</v>
+      </c>
+      <c r="B171">
+        <v>62</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171">
+        <v>68.400000000000006</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>45097</v>
+      </c>
+      <c r="B172">
+        <v>66.5</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172">
+        <v>63.9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>45098</v>
+      </c>
+      <c r="B173">
+        <v>65.5</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173">
+        <v>65.3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>45099</v>
+      </c>
+      <c r="B174">
+        <v>65</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>45100</v>
+      </c>
+      <c r="B175">
+        <v>64</v>
+      </c>
+      <c r="C175">
+        <v>0.04</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175">
+        <v>74.7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <v>45101</v>
+      </c>
+      <c r="B176">
+        <v>66</v>
+      </c>
+      <c r="C176">
+        <v>0.06</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176">
+        <v>84.9</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <v>45102</v>
+      </c>
+      <c r="B177">
+        <v>67.5</v>
+      </c>
+      <c r="C177" t="s">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177">
+        <v>84.7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <v>45103</v>
+      </c>
+      <c r="B178">
+        <v>70.5</v>
+      </c>
+      <c r="C178">
+        <v>0.21</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178">
+        <v>83.2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <v>45104</v>
+      </c>
+      <c r="B179">
+        <v>70</v>
+      </c>
+      <c r="C179">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179">
+        <v>82.1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <v>45105</v>
+      </c>
+      <c r="B180">
+        <v>64.5</v>
+      </c>
+      <c r="C180">
+        <v>0.11</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180">
+        <v>82.2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <v>45106</v>
+      </c>
+      <c r="B181">
+        <v>59</v>
+      </c>
+      <c r="C181">
+        <v>0.03</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181">
+        <v>71.2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <v>45107</v>
+      </c>
+      <c r="B182">
+        <v>65</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182">
+        <v>75.2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <v>45108</v>
+      </c>
+      <c r="B183">
+        <v>72</v>
+      </c>
+      <c r="C183" t="s">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183">
+        <v>85.4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <v>45109</v>
+      </c>
+      <c r="B184">
+        <v>73</v>
+      </c>
+      <c r="C184">
+        <v>0.44</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184">
+        <v>89.7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>45110</v>
+      </c>
+      <c r="B185">
+        <v>68.5</v>
+      </c>
+      <c r="C185">
+        <v>0.64</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185">
+        <v>91.8</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <v>45111</v>
+      </c>
+      <c r="B186">
+        <v>67</v>
+      </c>
+      <c r="C186" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>45112</v>
+      </c>
+      <c r="B187">
+        <v>72</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187">
+        <v>73.900000000000006</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <v>45113</v>
+      </c>
+      <c r="B188">
+        <v>74</v>
+      </c>
+      <c r="C188">
+        <v>0.02</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>45114</v>
+      </c>
+      <c r="B189">
+        <v>76.5</v>
+      </c>
+      <c r="C189">
+        <v>0.06</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>45115</v>
+      </c>
+      <c r="B190">
+        <v>63.5</v>
+      </c>
+      <c r="C190">
+        <v>0.22</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190">
+        <v>69.3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>45116</v>
+      </c>
+      <c r="B191">
+        <v>66</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191">
+        <v>76.8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <v>45117</v>
+      </c>
+      <c r="B192">
+        <v>66</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192">
+        <v>69.2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>45118</v>
+      </c>
+      <c r="B193">
+        <v>67.5</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193">
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>45119</v>
+      </c>
+      <c r="B194">
+        <v>70.5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194">
+        <v>64.599999999999994</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>45120</v>
+      </c>
+      <c r="B195">
+        <v>69</v>
+      </c>
+      <c r="C195">
+        <v>0.25</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195">
+        <v>77.599999999999994</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <v>45121</v>
+      </c>
+      <c r="B196">
+        <v>65</v>
+      </c>
+      <c r="C196">
+        <v>0.3</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196">
+        <v>72.099999999999994</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <v>45122</v>
+      </c>
+      <c r="B197">
+        <v>69</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197">
+        <v>78.900000000000006</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <v>45123</v>
+      </c>
+      <c r="B198">
+        <v>73.5</v>
+      </c>
+      <c r="C198">
+        <v>0.12</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198">
+        <v>86.4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <v>45124</v>
+      </c>
+      <c r="B199">
+        <v>70.5</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199">
+        <v>65.7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <v>45125</v>
+      </c>
+      <c r="B200">
+        <v>69</v>
+      </c>
+      <c r="C200">
+        <v>0.04</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200">
+        <v>81.7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <v>45126</v>
+      </c>
+      <c r="B201">
+        <v>65</v>
+      </c>
+      <c r="C201">
+        <v>0.02</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201">
+        <v>71.2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
+        <v>45127</v>
+      </c>
+      <c r="B202">
+        <v>66.5</v>
+      </c>
+      <c r="C202">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202">
+        <v>74.2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
+        <v>45128</v>
+      </c>
+      <c r="B203">
+        <v>69.5</v>
+      </c>
+      <c r="C203">
+        <v>0.37</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203">
+        <v>79.900000000000006</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
+        <v>45129</v>
+      </c>
+      <c r="B204">
+        <v>63.5</v>
+      </c>
+      <c r="C204" t="s">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204">
+        <v>70.099999999999994</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
+        <v>45130</v>
+      </c>
+      <c r="B205">
+        <v>66</v>
+      </c>
+      <c r="C205">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205">
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
+        <v>45131</v>
+      </c>
+      <c r="B206">
+        <v>68</v>
+      </c>
+      <c r="C206">
+        <v>0.31</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206">
+        <v>81.3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" s="1">
+        <v>45132</v>
+      </c>
+      <c r="B207">
+        <v>68</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207">
+        <v>83.2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
+        <v>45133</v>
+      </c>
+      <c r="B208">
+        <v>68</v>
+      </c>
+      <c r="C208">
+        <v>0.85</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="E208">
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
+        <v>45134</v>
+      </c>
+      <c r="B209">
+        <v>75</v>
+      </c>
+      <c r="C209">
+        <v>0.15</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209">
+        <v>85.6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
+        <v>45135</v>
+      </c>
+      <c r="B210">
+        <v>70.5</v>
+      </c>
+      <c r="C210">
+        <v>0.03</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+      <c r="E210">
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
+        <v>45136</v>
+      </c>
+      <c r="B211">
+        <v>75.5</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
+      </c>
+      <c r="E211">
+        <v>92.6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
+        <v>45137</v>
+      </c>
+      <c r="B212">
+        <v>62</v>
+      </c>
+      <c r="C212">
+        <v>0.44</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212">
+        <v>67.099999999999994</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
+        <v>45138</v>
+      </c>
+      <c r="B213">
+        <v>62</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213">
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
+        <v>45139</v>
+      </c>
+      <c r="B214">
+        <v>61</v>
+      </c>
+      <c r="C214">
+        <v>0.05</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214">
+        <v>67.099999999999994</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="1">
+        <v>45140</v>
+      </c>
+      <c r="B215">
+        <v>61</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+      <c r="E215">
+        <v>66.3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" s="1">
+        <v>45141</v>
+      </c>
+      <c r="B216">
+        <v>65.5</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216">
+        <v>71.400000000000006</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" s="1">
+        <v>45142</v>
+      </c>
+      <c r="B217">
+        <v>71.5</v>
+      </c>
+      <c r="C217" t="s">
+        <v>0</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+      <c r="E217">
+        <v>75.3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" s="1">
+        <v>45143</v>
+      </c>
+      <c r="B218">
+        <v>67</v>
+      </c>
+      <c r="C218" t="s">
+        <v>0</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218">
+        <v>75.099999999999994</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" s="1">
+        <v>45144</v>
+      </c>
+      <c r="B219">
+        <v>61.5</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" s="1">
+        <v>45145</v>
+      </c>
+      <c r="B220">
+        <v>70.5</v>
+      </c>
+      <c r="C220">
+        <v>0.21</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220">
+        <v>86.9</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" s="1">
+        <v>45146</v>
+      </c>
+      <c r="B221">
+        <v>69.5</v>
+      </c>
+      <c r="C221">
+        <v>0.25</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221">
+        <v>88.1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222" s="1">
+        <v>45147</v>
+      </c>
+      <c r="B222">
+        <v>63.5</v>
+      </c>
+      <c r="C222">
+        <v>0.12</v>
+      </c>
+      <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="E222">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" s="1">
+        <v>45148</v>
+      </c>
+      <c r="B223">
+        <v>68.5</v>
+      </c>
+      <c r="C223">
+        <v>0.08</v>
+      </c>
+      <c r="D223">
+        <v>0</v>
+      </c>
+      <c r="E223">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" s="1">
+        <v>45149</v>
+      </c>
+      <c r="B224">
+        <v>66.5</v>
+      </c>
+      <c r="C224">
+        <v>0.08</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224">
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" s="1">
+        <v>45150</v>
+      </c>
+      <c r="B225">
+        <v>63.5</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225">
+        <v>72.400000000000006</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" s="1">
+        <v>45151</v>
+      </c>
+      <c r="B226">
+        <v>70</v>
+      </c>
+      <c r="C226">
+        <v>0.27</v>
+      </c>
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="E226">
+        <v>74.400000000000006</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" s="1">
+        <v>45152</v>
+      </c>
+      <c r="B227">
+        <v>64.5</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227">
+        <v>77.900000000000006</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" s="1">
+        <v>45153</v>
+      </c>
+      <c r="B228">
+        <v>66</v>
+      </c>
+      <c r="C228">
+        <v>0.05</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+      <c r="E228">
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" s="1">
+        <v>45154</v>
+      </c>
+      <c r="B229">
+        <v>63.5</v>
+      </c>
+      <c r="C229">
+        <v>0.15</v>
+      </c>
+      <c r="D229">
+        <v>0</v>
+      </c>
+      <c r="E229">
+        <v>85.5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" s="1">
+        <v>45155</v>
+      </c>
+      <c r="B230">
+        <v>67</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>0</v>
+      </c>
+      <c r="E230">
+        <v>78.3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" s="1">
+        <v>45156</v>
+      </c>
+      <c r="B231">
+        <v>66</v>
+      </c>
+      <c r="C231">
+        <v>0.09</v>
+      </c>
+      <c r="D231">
+        <v>0</v>
+      </c>
+      <c r="E231">
+        <v>76.7</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232" s="1">
+        <v>45157</v>
+      </c>
+      <c r="B232">
+        <v>56</v>
+      </c>
+      <c r="C232">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D232">
+        <v>0</v>
+      </c>
+      <c r="E232">
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" s="1">
+        <v>45158</v>
+      </c>
+      <c r="B233">
+        <v>62</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>0</v>
+      </c>
+      <c r="E233">
+        <v>71.099999999999994</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" s="1">
+        <v>45159</v>
+      </c>
+      <c r="B234">
+        <v>69.5</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+      <c r="D234">
+        <v>0</v>
+      </c>
+      <c r="E234">
+        <v>75.7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235" s="1">
+        <v>45160</v>
+      </c>
+      <c r="B235">
+        <v>63.5</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+      <c r="D235">
+        <v>0</v>
+      </c>
+      <c r="E235">
+        <v>67.400000000000006</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" s="1">
+        <v>45161</v>
+      </c>
+      <c r="B236">
+        <v>61.5</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+      <c r="D236">
+        <v>0</v>
+      </c>
+      <c r="E236">
+        <v>67.8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237" s="1">
+        <v>45162</v>
+      </c>
+      <c r="B237">
+        <v>62</v>
+      </c>
+      <c r="C237" t="s">
+        <v>0</v>
+      </c>
+      <c r="D237">
+        <v>0</v>
+      </c>
+      <c r="E237">
+        <v>80.900000000000006</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238" s="1">
+        <v>45163</v>
+      </c>
+      <c r="B238">
+        <v>67</v>
+      </c>
+      <c r="C238" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="D238">
+        <v>0</v>
+      </c>
+      <c r="E238">
+        <v>87.9</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" s="1">
+        <v>45164</v>
+      </c>
+      <c r="B239">
+        <v>63.5</v>
+      </c>
+      <c r="C239">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D239">
+        <v>0</v>
+      </c>
+      <c r="E239">
+        <v>74.900000000000006</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240" s="1">
+        <v>45165</v>
+      </c>
+      <c r="B240">
+        <v>64</v>
+      </c>
+      <c r="C240">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D240">
+        <v>0</v>
+      </c>
+      <c r="E240">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
+        <v>45166</v>
+      </c>
+      <c r="B241">
+        <v>58.5</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="E241">
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
+        <v>45167</v>
+      </c>
+      <c r="B242">
+        <v>62</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242">
+        <v>78.8</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
+        <v>45168</v>
+      </c>
+      <c r="B243">
+        <v>68.5</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
+      </c>
+      <c r="D243">
+        <v>0</v>
+      </c>
+      <c r="E243">
+        <v>74.8</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
+        <v>45169</v>
+      </c>
+      <c r="B244">
+        <v>55</v>
+      </c>
+      <c r="C244">
+        <v>0.08</v>
+      </c>
+      <c r="D244">
+        <v>0</v>
+      </c>
+      <c r="E244">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" s="1">
+        <v>45170</v>
+      </c>
+      <c r="B245">
+        <v>57</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="E245">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" s="1">
+        <v>45171</v>
+      </c>
+      <c r="B246">
+        <v>61</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+      <c r="D246">
+        <v>0</v>
+      </c>
+      <c r="E246">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" s="1">
+        <v>45172</v>
+      </c>
+      <c r="B247">
+        <v>68.5</v>
+      </c>
+      <c r="C247" t="s">
+        <v>0</v>
+      </c>
+      <c r="D247">
+        <v>0</v>
+      </c>
+      <c r="E247">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" s="1">
+        <v>45173</v>
+      </c>
+      <c r="B248">
+        <v>73</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+      <c r="D248">
+        <v>0</v>
+      </c>
+      <c r="E248">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" s="1">
+        <v>45174</v>
+      </c>
+      <c r="B249">
+        <v>75</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+      <c r="D249">
+        <v>0</v>
+      </c>
+      <c r="E249">
+        <v>72.900000000000006</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" s="1">
+        <v>45175</v>
+      </c>
+      <c r="B250">
+        <v>74.5</v>
+      </c>
+      <c r="C250">
+        <v>0</v>
+      </c>
+      <c r="D250">
+        <v>0</v>
+      </c>
+      <c r="E250">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" s="1">
+        <v>45176</v>
+      </c>
+      <c r="B251">
+        <v>76</v>
+      </c>
+      <c r="C251" s="3">
+        <v>0.47</v>
+      </c>
+      <c r="D251">
+        <v>0</v>
+      </c>
+      <c r="E251">
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" s="1">
+        <v>45177</v>
+      </c>
+      <c r="B252">
+        <v>71</v>
+      </c>
+      <c r="C252">
+        <v>0.33</v>
+      </c>
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252">
+        <v>75.8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" s="1">
+        <v>45178</v>
+      </c>
+      <c r="B253">
+        <v>64</v>
+      </c>
+      <c r="C253" t="s">
+        <v>0</v>
+      </c>
+      <c r="D253">
+        <v>0</v>
+      </c>
+      <c r="E253">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" s="1">
+        <v>45179</v>
+      </c>
+      <c r="B254">
+        <v>59.5</v>
+      </c>
+      <c r="C254">
+        <v>0.08</v>
+      </c>
+      <c r="D254">
+        <v>0</v>
+      </c>
+      <c r="E254">
+        <v>85.3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255" s="1">
+        <v>45180</v>
+      </c>
+      <c r="B255">
+        <v>63.5</v>
+      </c>
+      <c r="C255">
+        <v>0.02</v>
+      </c>
+      <c r="D255">
+        <v>0</v>
+      </c>
+      <c r="E255">
+        <v>78.099999999999994</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256" s="1">
+        <v>45181</v>
+      </c>
+      <c r="B256">
+        <v>61.5</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
+      </c>
+      <c r="D256">
+        <v>0</v>
+      </c>
+      <c r="E256">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A257" s="1">
+        <v>45182</v>
+      </c>
+      <c r="B257">
+        <v>63</v>
+      </c>
+      <c r="C257">
+        <v>0.1</v>
+      </c>
+      <c r="D257">
+        <v>0</v>
+      </c>
+      <c r="E257">
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A258" s="1">
+        <v>45183</v>
+      </c>
+      <c r="B258">
+        <v>55</v>
+      </c>
+      <c r="C258">
+        <v>0</v>
+      </c>
+      <c r="D258">
+        <v>0</v>
+      </c>
+      <c r="E258">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A259" s="1">
+        <v>45184</v>
+      </c>
+      <c r="B259">
+        <v>53</v>
+      </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
+      <c r="D259">
+        <v>0</v>
+      </c>
+      <c r="E259">
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A260" s="1">
+        <v>45185</v>
+      </c>
+      <c r="B260">
+        <v>54.5</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
+      <c r="D260">
+        <v>0</v>
+      </c>
+      <c r="E260">
+        <v>71.2</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A261" s="1">
+        <v>45186</v>
+      </c>
+      <c r="B261">
+        <v>55.5</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+      <c r="D261">
+        <v>0</v>
+      </c>
+      <c r="E261">
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A262" s="1">
+        <v>45187</v>
+      </c>
+      <c r="B262">
+        <v>58</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+      <c r="D262">
+        <v>0</v>
+      </c>
+      <c r="E262">
+        <v>83.1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A263" s="1">
+        <v>45188</v>
+      </c>
+      <c r="B263">
+        <v>59</v>
+      </c>
+      <c r="C263">
+        <v>0.04</v>
+      </c>
+      <c r="D263">
+        <v>0</v>
+      </c>
+      <c r="E263">
+        <v>70.3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A264" s="1">
+        <v>45189</v>
+      </c>
+      <c r="B264">
+        <v>54.5</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+      <c r="D264">
+        <v>0</v>
+      </c>
+      <c r="E264">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A265" s="1">
+        <v>45190</v>
+      </c>
+      <c r="B265">
+        <v>54.5</v>
+      </c>
+      <c r="C265">
+        <v>0</v>
+      </c>
+      <c r="D265">
+        <v>0</v>
+      </c>
+      <c r="E265">
+        <v>70.099999999999994</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A266" s="1">
+        <v>45191</v>
+      </c>
+      <c r="B266">
+        <v>57.5</v>
+      </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+      <c r="D266">
+        <v>0</v>
+      </c>
+      <c r="E266">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A267" s="1">
+        <v>45192</v>
+      </c>
+      <c r="B267">
+        <v>58</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+      <c r="D267">
+        <v>0</v>
+      </c>
+      <c r="E267">
+        <v>64.3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A268" s="1">
+        <v>45193</v>
+      </c>
+      <c r="B268">
+        <v>56</v>
+      </c>
+      <c r="C268">
+        <v>0.01</v>
+      </c>
+      <c r="D268">
+        <v>0</v>
+      </c>
+      <c r="E268">
+        <v>77.400000000000006</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A269" s="1">
+        <v>45194</v>
+      </c>
+      <c r="B269">
+        <v>52.5</v>
+      </c>
+      <c r="C269">
+        <v>0.03</v>
+      </c>
+      <c r="D269">
+        <v>0</v>
+      </c>
+      <c r="E269">
+        <v>78.400000000000006</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A270" s="1">
+        <v>45195</v>
+      </c>
+      <c r="B270">
+        <v>55.5</v>
+      </c>
+      <c r="C270">
+        <v>0.04</v>
+      </c>
+      <c r="D270">
+        <v>0</v>
+      </c>
+      <c r="E270">
+        <v>71.8</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A271" s="1">
+        <v>45196</v>
+      </c>
+      <c r="B271">
+        <v>54.5</v>
+      </c>
+      <c r="C271">
+        <v>0</v>
+      </c>
+      <c r="D271">
+        <v>0</v>
+      </c>
+      <c r="E271">
+        <v>65.8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A272" s="1">
+        <v>45197</v>
+      </c>
+      <c r="B272">
+        <v>55.5</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+      <c r="D272">
+        <v>0</v>
+      </c>
+      <c r="E272">
+        <v>64.900000000000006</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A273" s="1">
+        <v>45198</v>
+      </c>
+      <c r="B273">
+        <v>58</v>
+      </c>
+      <c r="C273" t="s">
+        <v>0</v>
+      </c>
+      <c r="D273">
+        <v>0</v>
+      </c>
+      <c r="E273">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A274" s="1">
+        <v>45199</v>
+      </c>
+      <c r="B274">
+        <v>60</v>
+      </c>
+      <c r="C274">
+        <v>0</v>
+      </c>
+      <c r="D274">
+        <v>0</v>
+      </c>
+      <c r="E274">
+        <v>83.7</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A275" s="1">
+        <v>45200</v>
+      </c>
+      <c r="B275">
+        <v>62</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+      <c r="D275">
+        <v>0</v>
+      </c>
+      <c r="E275">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A276" s="1">
+        <v>45201</v>
+      </c>
+      <c r="B276">
+        <v>64</v>
+      </c>
+      <c r="C276">
+        <v>0</v>
+      </c>
+      <c r="D276">
+        <v>0</v>
+      </c>
+      <c r="E276">
+        <v>79.599999999999994</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A277" s="1">
+        <v>45202</v>
+      </c>
+      <c r="B277">
+        <v>66.5</v>
+      </c>
+      <c r="C277">
+        <v>0</v>
+      </c>
+      <c r="D277">
+        <v>0</v>
+      </c>
+      <c r="E277">
+        <v>73.900000000000006</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A278" s="1">
+        <v>45203</v>
+      </c>
+      <c r="B278">
+        <v>69</v>
+      </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
+      <c r="D278">
+        <v>0</v>
+      </c>
+      <c r="E278">
+        <v>66.2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A279" s="1">
+        <v>45204</v>
+      </c>
+      <c r="B279">
+        <v>70.5</v>
+      </c>
+      <c r="C279">
+        <v>0</v>
+      </c>
+      <c r="D279">
+        <v>0</v>
+      </c>
+      <c r="E279">
+        <v>59.3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A280" s="1">
+        <v>45205</v>
+      </c>
+      <c r="B280">
+        <v>69</v>
+      </c>
+      <c r="C280">
+        <v>0.05</v>
+      </c>
+      <c r="D280">
+        <v>0</v>
+      </c>
+      <c r="E280">
+        <v>73.099999999999994</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A281" s="1">
+        <v>45206</v>
+      </c>
+      <c r="B281">
+        <v>59</v>
+      </c>
+      <c r="C281">
+        <v>0.51</v>
+      </c>
+      <c r="D281">
+        <v>0</v>
+      </c>
+      <c r="E281">
+        <v>73.099999999999994</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A282" s="1">
+        <v>45207</v>
+      </c>
+      <c r="B282">
+        <v>48</v>
+      </c>
+      <c r="C282">
+        <v>0.05</v>
+      </c>
+      <c r="D282">
+        <v>0</v>
+      </c>
+      <c r="E282">
+        <v>75.3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A283" s="1">
+        <v>45208</v>
+      </c>
+      <c r="B283">
+        <v>45</v>
+      </c>
+      <c r="C283" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="D283">
+        <v>0</v>
+      </c>
+      <c r="E283">
+        <v>65.900000000000006</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A284" s="1">
+        <v>45209</v>
+      </c>
+      <c r="B284">
+        <v>44.5</v>
+      </c>
+      <c r="C284">
+        <v>0.05</v>
+      </c>
+      <c r="D284">
+        <v>0</v>
+      </c>
+      <c r="E284">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A285" s="1">
+        <v>45210</v>
+      </c>
+      <c r="B285">
+        <v>46</v>
+      </c>
+      <c r="C285">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D285">
+        <v>0</v>
+      </c>
+      <c r="E285">
+        <v>80.3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A286" s="1">
+        <v>45211</v>
+      </c>
+      <c r="B286">
+        <v>44.5</v>
+      </c>
+      <c r="C286">
+        <v>0.25</v>
+      </c>
+      <c r="D286">
+        <v>0</v>
+      </c>
+      <c r="E286">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A287" s="1">
+        <v>45212</v>
+      </c>
+      <c r="B287">
+        <v>47.5</v>
+      </c>
+      <c r="C287">
+        <v>0</v>
+      </c>
+      <c r="D287">
+        <v>0</v>
+      </c>
+      <c r="E287">
+        <v>75.400000000000006</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A288" s="1">
+        <v>45213</v>
+      </c>
+      <c r="B288">
+        <v>46</v>
+      </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
+      <c r="D288">
+        <v>0</v>
+      </c>
+      <c r="E288">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A289" s="1">
+        <v>45214</v>
+      </c>
+      <c r="B289">
+        <v>43</v>
+      </c>
+      <c r="C289">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D289">
+        <v>0</v>
+      </c>
+      <c r="E289">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A290" s="1">
+        <v>45215</v>
+      </c>
+      <c r="B290">
+        <v>42.5</v>
+      </c>
+      <c r="C290">
+        <v>0.27</v>
+      </c>
+      <c r="D290">
+        <v>0</v>
+      </c>
+      <c r="E290">
+        <v>85.6</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A291" s="1">
+        <v>45216</v>
+      </c>
+      <c r="B291">
+        <v>45</v>
+      </c>
+      <c r="C291">
+        <v>0.22</v>
+      </c>
+      <c r="D291">
+        <v>0</v>
+      </c>
+      <c r="E291">
+        <v>84.3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A292" s="1">
+        <v>45217</v>
+      </c>
+      <c r="B292">
+        <v>45.5</v>
+      </c>
+      <c r="C292">
+        <v>0.01</v>
+      </c>
+      <c r="D292">
+        <v>0</v>
+      </c>
+      <c r="E292">
+        <v>76.8</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A293" s="1">
+        <v>45218</v>
+      </c>
+      <c r="B293">
+        <v>44.5</v>
+      </c>
+      <c r="C293">
+        <v>0</v>
+      </c>
+      <c r="D293">
+        <v>0</v>
+      </c>
+      <c r="E293">
+        <v>68.3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A294" s="1">
+        <v>45219</v>
+      </c>
+      <c r="B294">
+        <v>49.5</v>
+      </c>
+      <c r="C294">
+        <v>0</v>
+      </c>
+      <c r="D294">
+        <v>0</v>
+      </c>
+      <c r="E294">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A295" s="1">
+        <v>45220</v>
+      </c>
+      <c r="B295">
+        <v>50</v>
+      </c>
+      <c r="C295">
+        <v>0.06</v>
+      </c>
+      <c r="D295">
+        <v>0</v>
+      </c>
+      <c r="E295">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A296" s="1">
+        <v>45221</v>
+      </c>
+      <c r="B296">
+        <v>41</v>
+      </c>
+      <c r="C296">
+        <v>0.1</v>
+      </c>
+      <c r="D296">
+        <v>0</v>
+      </c>
+      <c r="E296">
+        <v>66.900000000000006</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A297" s="1">
+        <v>45222</v>
+      </c>
+      <c r="B297">
+        <v>38.5</v>
+      </c>
+      <c r="C297">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D297" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E297">
+        <v>71.099999999999994</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A298" s="1">
+        <v>45223</v>
+      </c>
+      <c r="B298">
+        <v>42</v>
+      </c>
+      <c r="C298">
+        <v>0</v>
+      </c>
+      <c r="D298">
+        <v>0</v>
+      </c>
+      <c r="E298">
+        <v>54.3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A299" s="1">
+        <v>45224</v>
+      </c>
+      <c r="B299">
+        <v>60</v>
+      </c>
+      <c r="C299">
+        <v>0</v>
+      </c>
+      <c r="D299">
+        <v>0</v>
+      </c>
+      <c r="E299">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A300" s="1">
+        <v>45225</v>
+      </c>
+      <c r="B300">
+        <v>64.5</v>
+      </c>
+      <c r="C300">
+        <v>0.01</v>
+      </c>
+      <c r="D300">
+        <v>0</v>
+      </c>
+      <c r="E300">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A301" s="1">
+        <v>45226</v>
+      </c>
+      <c r="B301">
+        <v>64.5</v>
+      </c>
+      <c r="C301">
+        <v>0</v>
+      </c>
+      <c r="D301">
+        <v>0</v>
+      </c>
+      <c r="E301">
+        <v>66.900000000000006</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A302" s="1">
+        <v>45227</v>
+      </c>
+      <c r="B302">
+        <v>65</v>
+      </c>
+      <c r="C302">
+        <v>0.15</v>
+      </c>
+      <c r="D302">
+        <v>0</v>
+      </c>
+      <c r="E302">
+        <v>74.8</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A303" s="1">
+        <v>45228</v>
+      </c>
+      <c r="B303">
+        <v>49.5</v>
+      </c>
+      <c r="C303">
+        <v>0.47</v>
+      </c>
+      <c r="D303">
+        <v>0</v>
+      </c>
+      <c r="E303">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A304" s="1">
+        <v>45229</v>
+      </c>
+      <c r="B304">
+        <v>39.5</v>
+      </c>
+      <c r="C304">
+        <v>0.38</v>
+      </c>
+      <c r="D304">
+        <v>0</v>
+      </c>
+      <c r="E304">
+        <v>85.8</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A305" s="1">
+        <v>45230</v>
+      </c>
+      <c r="B305">
+        <v>33</v>
+      </c>
+      <c r="C305">
+        <v>0.09</v>
+      </c>
+      <c r="D305" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E305">
+        <v>76.8</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A306" s="1">
+        <v>45231</v>
+      </c>
+      <c r="B306">
+        <v>31.5</v>
+      </c>
+      <c r="C306">
+        <v>0.03</v>
+      </c>
+      <c r="D306">
+        <v>0.3</v>
+      </c>
+      <c r="E306">
+        <v>80.099999999999994</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A307" s="1">
+        <v>45232</v>
+      </c>
+      <c r="B307">
+        <v>31.5</v>
+      </c>
+      <c r="C307" t="s">
+        <v>0</v>
+      </c>
+      <c r="D307" t="s">
+        <v>0</v>
+      </c>
+      <c r="E307">
+        <v>62.9</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A308" s="1">
+        <v>45233</v>
+      </c>
+      <c r="B308">
+        <v>36.5</v>
+      </c>
+      <c r="C308">
+        <v>0</v>
+      </c>
+      <c r="D308">
+        <v>0</v>
+      </c>
+      <c r="E308">
+        <v>34.299999999999997</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A309" s="1">
+        <v>45234</v>
+      </c>
+      <c r="B309">
+        <v>47.5</v>
+      </c>
+      <c r="C309" t="s">
+        <v>0</v>
+      </c>
+      <c r="D309">
+        <v>0</v>
+      </c>
+      <c r="E309">
+        <v>67.599999999999994</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A310" s="1">
+        <v>45235</v>
+      </c>
+      <c r="B310">
+        <v>45</v>
+      </c>
+      <c r="C310">
+        <v>0.03</v>
+      </c>
+      <c r="D310">
+        <v>0</v>
+      </c>
+      <c r="E310">
+        <v>70.7</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A311" s="1">
+        <v>45236</v>
+      </c>
+      <c r="B311">
+        <v>39</v>
+      </c>
+      <c r="C311" t="s">
+        <v>0</v>
+      </c>
+      <c r="D311">
+        <v>0</v>
+      </c>
+      <c r="E311">
+        <v>66.7</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A312" s="1">
+        <v>45237</v>
+      </c>
+      <c r="B312">
+        <v>47</v>
+      </c>
+      <c r="C312">
+        <v>0.09</v>
+      </c>
+      <c r="D312">
+        <v>0</v>
+      </c>
+      <c r="E312">
+        <v>69.3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A313" s="1">
+        <v>45238</v>
+      </c>
+      <c r="B313">
+        <v>39.5</v>
+      </c>
+      <c r="C313">
+        <v>0</v>
+      </c>
+      <c r="D313">
+        <v>0</v>
+      </c>
+      <c r="E313">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A314" s="1">
+        <v>45239</v>
+      </c>
+      <c r="B314">
+        <v>38.5</v>
+      </c>
+      <c r="C314">
+        <v>0.23</v>
+      </c>
+      <c r="D314">
+        <v>0</v>
+      </c>
+      <c r="E314">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A315" s="1">
+        <v>45240</v>
+      </c>
+      <c r="B315">
+        <v>43</v>
+      </c>
+      <c r="C315">
+        <v>0.06</v>
+      </c>
+      <c r="D315">
+        <v>0</v>
+      </c>
+      <c r="E315">
+        <v>56.3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A316" s="1">
+        <v>45241</v>
+      </c>
+      <c r="B316">
+        <v>40</v>
+      </c>
+      <c r="C316">
+        <v>0</v>
+      </c>
+      <c r="D316">
+        <v>0</v>
+      </c>
+      <c r="E316">
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A317" s="1">
+        <v>45242</v>
+      </c>
+      <c r="B317">
+        <v>31</v>
+      </c>
+      <c r="C317" t="s">
+        <v>0</v>
+      </c>
+      <c r="D317" t="s">
+        <v>0</v>
+      </c>
+      <c r="E317">
+        <v>67.599999999999994</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A318" s="1">
+        <v>45243</v>
+      </c>
+      <c r="B318">
+        <v>32</v>
+      </c>
+      <c r="C318">
+        <v>0</v>
+      </c>
+      <c r="D318">
+        <v>0</v>
+      </c>
+      <c r="E318">
+        <v>68.900000000000006</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A319" s="1">
+        <v>45244</v>
+      </c>
+      <c r="B319">
+        <v>43</v>
+      </c>
+      <c r="C319">
+        <v>0</v>
+      </c>
+      <c r="D319">
+        <v>0</v>
+      </c>
+      <c r="E319">
+        <v>66.2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A320" s="1">
+        <v>45245</v>
+      </c>
+      <c r="B320">
+        <v>35.5</v>
+      </c>
+      <c r="C320">
+        <v>0</v>
+      </c>
+      <c r="D320">
+        <v>0</v>
+      </c>
+      <c r="E320">
+        <v>59.3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A321" s="1">
+        <v>45246</v>
+      </c>
+      <c r="B321">
+        <v>49</v>
+      </c>
+      <c r="C321">
+        <v>0</v>
+      </c>
+      <c r="D321">
+        <v>0</v>
+      </c>
+      <c r="E321">
+        <v>66.3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A322" s="1">
+        <v>45247</v>
+      </c>
+      <c r="B322">
+        <v>50</v>
+      </c>
+      <c r="C322">
+        <v>0</v>
+      </c>
+      <c r="D322">
+        <v>0</v>
+      </c>
+      <c r="E322">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A323" s="1">
+        <v>45248</v>
+      </c>
+      <c r="B323">
+        <v>44</v>
+      </c>
+      <c r="C323" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="D323">
+        <v>0</v>
+      </c>
+      <c r="E323">
+        <v>70.3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A324" s="1">
+        <v>45249</v>
+      </c>
+      <c r="B324">
+        <v>35</v>
+      </c>
+      <c r="C324">
+        <v>0</v>
+      </c>
+      <c r="D324">
+        <v>0</v>
+      </c>
+      <c r="E324">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A325" s="1">
+        <v>45250</v>
+      </c>
+      <c r="B325">
+        <v>31</v>
+      </c>
+      <c r="C325" t="s">
+        <v>0</v>
+      </c>
+      <c r="D325" t="s">
+        <v>0</v>
+      </c>
+      <c r="E325">
+        <v>67.2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A326" s="1">
+        <v>45251</v>
+      </c>
+      <c r="B326">
+        <v>26</v>
+      </c>
+      <c r="C326">
+        <v>0</v>
+      </c>
+      <c r="D326">
+        <v>0</v>
+      </c>
+      <c r="E326">
+        <v>75.099999999999994</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A327" s="1">
+        <v>45252</v>
+      </c>
+      <c r="B327">
+        <v>36.5</v>
+      </c>
+      <c r="C327">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D327" t="s">
+        <v>0</v>
+      </c>
+      <c r="E327">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A328" s="1">
+        <v>45253</v>
+      </c>
+      <c r="B328">
+        <v>37.5</v>
+      </c>
+      <c r="C328">
+        <v>0.1</v>
+      </c>
+      <c r="D328">
+        <v>0</v>
+      </c>
+      <c r="E328">
+        <v>71.099999999999994</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A329" s="1">
+        <v>45254</v>
+      </c>
+      <c r="B329">
+        <v>32</v>
+      </c>
+      <c r="C329" t="s">
+        <v>0</v>
+      </c>
+      <c r="D329">
+        <v>0</v>
+      </c>
+      <c r="E329">
+        <v>64.599999999999994</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A330" s="1">
+        <v>45255</v>
+      </c>
+      <c r="B330">
+        <v>23</v>
+      </c>
+      <c r="C330" t="s">
+        <v>5</v>
+      </c>
+      <c r="D330">
+        <v>0</v>
+      </c>
+      <c r="E330">
+        <v>68.400000000000006</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A331" s="1">
+        <v>45256</v>
+      </c>
+      <c r="B331">
+        <v>27</v>
+      </c>
+      <c r="C331" t="s">
+        <v>6</v>
+      </c>
+      <c r="D331">
+        <v>0</v>
+      </c>
+      <c r="E331">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A332" s="1">
+        <v>45257</v>
+      </c>
+      <c r="B332">
+        <v>35</v>
+      </c>
+      <c r="C332">
+        <v>0.16</v>
+      </c>
+      <c r="D332">
+        <v>0</v>
+      </c>
+      <c r="E332">
+        <v>65.099999999999994</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A333" s="1">
+        <v>45258</v>
+      </c>
+      <c r="B333">
+        <v>23.5</v>
+      </c>
+      <c r="C333">
+        <v>0.21</v>
+      </c>
+      <c r="D333" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="E333">
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A334" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B334">
+        <v>18.5</v>
+      </c>
+      <c r="C334">
+        <v>0.12</v>
+      </c>
+      <c r="D334">
+        <v>3.5</v>
+      </c>
+      <c r="E334">
+        <v>63.2</v>
+      </c>
+      <c r="J334" s="3"/>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A335" s="1">
+        <v>45260</v>
+      </c>
+      <c r="B335">
+        <v>24</v>
+      </c>
+      <c r="C335" t="s">
+        <v>0</v>
+      </c>
+      <c r="D335" t="s">
+        <v>0</v>
+      </c>
+      <c r="E335">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A336" s="1">
+        <v>45261</v>
+      </c>
+      <c r="B336">
+        <v>38.5</v>
+      </c>
+      <c r="C336">
+        <v>0</v>
+      </c>
+      <c r="D336">
+        <v>0</v>
+      </c>
+      <c r="E336">
+        <v>77.900000000000006</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A337" s="1">
+        <v>45262</v>
+      </c>
+      <c r="B337">
+        <v>40</v>
+      </c>
+      <c r="C337">
+        <v>0.46</v>
+      </c>
+      <c r="D337">
+        <v>0</v>
+      </c>
+      <c r="E337">
+        <v>89.5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A338" s="1">
+        <v>45263</v>
+      </c>
+      <c r="B338">
+        <v>39.5</v>
+      </c>
+      <c r="C338">
+        <v>0.17</v>
+      </c>
+      <c r="D338">
+        <v>0</v>
+      </c>
+      <c r="E338">
+        <v>89.2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A339" s="1">
+        <v>45264</v>
+      </c>
+      <c r="B339">
+        <v>41.5</v>
+      </c>
+      <c r="C339" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="D339">
+        <v>0</v>
+      </c>
+      <c r="E339">
+        <v>80.2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A340" s="1">
+        <v>45265</v>
+      </c>
+      <c r="B340">
+        <v>30.5</v>
+      </c>
+      <c r="C340">
+        <v>0.18</v>
+      </c>
+      <c r="D340" t="s">
+        <v>0</v>
+      </c>
+      <c r="E340">
+        <v>78.2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A341" s="1">
+        <v>45266</v>
+      </c>
+      <c r="B341">
+        <v>27.5</v>
+      </c>
+      <c r="C341">
+        <v>0.1</v>
+      </c>
+      <c r="D341">
+        <v>1.2</v>
+      </c>
+      <c r="E341">
+        <v>80.599999999999994</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A342" s="1">
+        <v>45267</v>
+      </c>
+      <c r="B342">
+        <v>24.5</v>
+      </c>
+      <c r="C342">
+        <v>0.18</v>
+      </c>
+      <c r="D342">
+        <v>3.2</v>
+      </c>
+      <c r="E342">
+        <v>84.7</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A343" s="1">
+        <v>45268</v>
+      </c>
+      <c r="B343">
+        <v>31.5</v>
+      </c>
+      <c r="C343">
+        <v>0.01</v>
+      </c>
+      <c r="D343" t="s">
+        <v>0</v>
+      </c>
+      <c r="E343">
+        <v>67.900000000000006</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A344" s="1">
+        <v>45269</v>
+      </c>
+      <c r="B344">
+        <v>40</v>
+      </c>
+      <c r="C344">
+        <v>0</v>
+      </c>
+      <c r="D344">
+        <v>0</v>
+      </c>
+      <c r="E344">
+        <v>51.7</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A345" s="1">
+        <v>45270</v>
+      </c>
+      <c r="B345">
+        <v>50</v>
+      </c>
+      <c r="C345">
+        <v>0.13</v>
+      </c>
+      <c r="D345">
+        <v>0</v>
+      </c>
+      <c r="E345">
+        <v>78.400000000000006</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A346" s="1">
+        <v>45271</v>
+      </c>
+      <c r="B346">
+        <v>35.5</v>
+      </c>
+      <c r="C346">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D346" t="s">
+        <v>0</v>
+      </c>
+      <c r="E346">
+        <v>71.599999999999994</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A347" s="1">
+        <v>45272</v>
+      </c>
+      <c r="B347">
+        <v>27</v>
+      </c>
+      <c r="C347" t="s">
+        <v>0</v>
+      </c>
+      <c r="D347" t="s">
+        <v>0</v>
+      </c>
+      <c r="E347">
+        <v>56.3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A348" s="1">
+        <v>45273</v>
+      </c>
+      <c r="B348">
+        <v>33</v>
+      </c>
+      <c r="C348">
+        <v>0</v>
+      </c>
+      <c r="D348">
+        <v>0</v>
+      </c>
+      <c r="E348">
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A349" s="1">
+        <v>45274</v>
+      </c>
+      <c r="B349">
+        <v>24.5</v>
+      </c>
+      <c r="C349" t="s">
+        <v>0</v>
+      </c>
+      <c r="D349" t="s">
+        <v>0</v>
+      </c>
+      <c r="E349">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A350" s="1">
+        <v>45275</v>
+      </c>
+      <c r="B350">
+        <v>28.5</v>
+      </c>
+      <c r="C350">
+        <v>0</v>
+      </c>
+      <c r="D350">
+        <v>0</v>
+      </c>
+      <c r="E350">
+        <v>61.8</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A351" s="1">
+        <v>45276</v>
+      </c>
+      <c r="B351">
+        <v>40.5</v>
+      </c>
+      <c r="C351">
+        <v>0</v>
+      </c>
+      <c r="D351">
+        <v>0</v>
+      </c>
+      <c r="E351">
+        <v>72.5</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A352" s="1">
+        <v>45277</v>
+      </c>
+      <c r="B352">
+        <v>39</v>
+      </c>
+      <c r="C352">
+        <v>0</v>
+      </c>
+      <c r="D352">
+        <v>0</v>
+      </c>
+      <c r="E352">
+        <v>70.2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A353" s="1">
+        <v>45278</v>
+      </c>
+      <c r="B353">
+        <v>42</v>
+      </c>
+      <c r="C353">
+        <v>0.18</v>
+      </c>
+      <c r="D353">
+        <v>0</v>
+      </c>
+      <c r="E353">
+        <v>84.9</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A354" s="1">
+        <v>45279</v>
+      </c>
+      <c r="B354">
+        <v>28</v>
+      </c>
+      <c r="C354">
+        <v>0.32</v>
+      </c>
+      <c r="D354" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="E354">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="J354" s="3"/>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A355" s="1">
+        <v>45280</v>
+      </c>
+      <c r="B355">
+        <v>20.5</v>
+      </c>
+      <c r="C355">
+        <v>0.03</v>
+      </c>
+      <c r="D355">
+        <v>0.5</v>
+      </c>
+      <c r="E355">
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A356" s="1">
+        <v>45281</v>
+      </c>
+      <c r="B356">
+        <v>27.5</v>
+      </c>
+      <c r="C356" t="s">
+        <v>0</v>
+      </c>
+      <c r="D356">
+        <v>0</v>
+      </c>
+      <c r="E356">
+        <v>74.8</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A357" s="1">
+        <v>45282</v>
+      </c>
+      <c r="B357">
+        <v>20.5</v>
+      </c>
+      <c r="C357" t="s">
+        <v>0</v>
+      </c>
+      <c r="D357" t="s">
+        <v>0</v>
+      </c>
+      <c r="E357">
+        <v>74.3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A358" s="1">
+        <v>45283</v>
+      </c>
+      <c r="B358">
+        <v>27.5</v>
+      </c>
+      <c r="C358" t="s">
+        <v>0</v>
+      </c>
+      <c r="D358">
+        <v>0</v>
+      </c>
+      <c r="E358">
+        <v>79.599999999999994</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A359" s="1">
+        <v>45284</v>
+      </c>
+      <c r="B359">
+        <v>35.5</v>
+      </c>
+      <c r="C359">
+        <v>0.08</v>
+      </c>
+      <c r="D359" t="s">
+        <v>0</v>
+      </c>
+      <c r="E359">
+        <v>88.6</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A360" s="1">
+        <v>45285</v>
+      </c>
+      <c r="B360">
+        <v>39</v>
+      </c>
+      <c r="C360">
+        <v>0.04</v>
+      </c>
+      <c r="D360">
+        <v>0</v>
+      </c>
+      <c r="E360">
+        <v>81.7</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A361" s="1">
+        <v>45286</v>
+      </c>
+      <c r="B361">
+        <v>45.5</v>
+      </c>
+      <c r="C361">
+        <v>0</v>
+      </c>
+      <c r="D361">
+        <v>0</v>
+      </c>
+      <c r="E361">
+        <v>84.4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A362" s="1">
+        <v>45287</v>
+      </c>
+      <c r="B362">
+        <v>45.5</v>
+      </c>
+      <c r="C362">
+        <v>0.35</v>
+      </c>
+      <c r="D362">
+        <v>0</v>
+      </c>
+      <c r="E362">
+        <v>90.1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A363" s="1">
+        <v>45288</v>
+      </c>
+      <c r="B363">
+        <v>46</v>
+      </c>
+      <c r="C363">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D363">
+        <v>0</v>
+      </c>
+      <c r="E363">
+        <v>90.6</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A364" s="1">
+        <v>45289</v>
+      </c>
+      <c r="B364">
+        <v>41</v>
+      </c>
+      <c r="C364">
+        <v>0.13</v>
+      </c>
+      <c r="D364">
+        <v>0</v>
+      </c>
+      <c r="E364">
+        <v>78.5</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A365" s="1">
+        <v>45290</v>
+      </c>
+      <c r="B365">
+        <v>34.5</v>
+      </c>
+      <c r="C365">
+        <v>0.18</v>
+      </c>
+      <c r="D365" t="s">
+        <v>0</v>
+      </c>
+      <c r="E365">
+        <v>83.7</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A366" s="1">
+        <v>45291</v>
+      </c>
+      <c r="B366">
+        <v>29</v>
+      </c>
+      <c r="C366">
+        <v>0.02</v>
+      </c>
+      <c r="D366" t="s">
+        <v>0</v>
+      </c>
+      <c r="E366">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>